--- a/Finanzas gESTIÓN mUNI 2.xlsx
+++ b/Finanzas gESTIÓN mUNI 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\OneDrive\Escritorio\volumetría\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6152544-789C-4FBC-8EAE-1529130E90C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD1E255-E161-4A2D-872F-86905150144C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="705" windowWidth="15375" windowHeight="7965" activeTab="2" xr2:uid="{3CD0175B-BE40-4100-955A-3E67F9C56D37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{3CD0175B-BE40-4100-955A-3E67F9C56D37}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingreso" sheetId="1" r:id="rId1"/>
@@ -1234,20 +1234,20 @@
       <selection activeCell="C43" sqref="C43:C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="19" customWidth="1"/>
     <col min="2" max="2" width="11" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="19"/>
+    <col min="3" max="3" width="11.44140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="19"/>
     <col min="7" max="7" width="17" style="19" customWidth="1"/>
-    <col min="8" max="11" width="11.42578125" style="19"/>
+    <col min="8" max="11" width="11.44140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>11</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="12" t="s">
         <v>41</v>
@@ -1297,7 +1297,7 @@
         <v>65364293</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="12" t="s">
@@ -1317,7 +1317,7 @@
       <c r="K4" s="18"/>
       <c r="L4" s="17"/>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1337,7 +1337,7 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>239</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>239</v>
       </c>
@@ -1384,7 +1384,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -1403,7 +1403,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1422,7 +1422,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>239</v>
       </c>
@@ -1443,27 +1443,27 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="14"/>
       <c r="J11" s="17"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
@@ -1477,7 +1477,7 @@
         <v>37559231</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>239</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>2004835</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>239</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>4765</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>239</v>
       </c>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="24"/>
       <c r="C18" s="12" t="s">
@@ -1549,7 +1549,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1558,7 +1558,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="12" t="s">
@@ -1576,7 +1576,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="12" t="s">
@@ -1594,7 +1594,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="12" t="s">
@@ -1612,7 +1612,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="12" t="s">
@@ -1630,7 +1630,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>239</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="24"/>
@@ -1662,7 +1662,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="12" t="s">
@@ -1685,17 +1685,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="G27" s="12"/>
       <c r="L27" s="20"/>
     </row>
-    <row r="28" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="J28" s="16"/>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
       <c r="C29" s="35"/>
@@ -1708,7 +1708,7 @@
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>38</v>
       </c>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>51</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
     </row>
-    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="26" t="s">
         <v>53</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" s="19" t="s">
         <v>50</v>
       </c>
@@ -1774,10 +1774,10 @@
       </c>
       <c r="E33" s="19"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E34" s="19"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>68</v>
       </c>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="E35" s="19"/>
     </row>
-    <row r="36" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="34"/>
       <c r="B36" s="34"/>
       <c r="C36" s="35"/>
@@ -1803,7 +1803,7 @@
       <c r="J36" s="34"/>
       <c r="K36" s="34"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
         <v>57</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>61</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>69</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="19" t="s">
         <v>64</v>
       </c>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="F40" s="20"/>
     </row>
-    <row r="41" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="34"/>
       <c r="B41" s="34"/>
       <c r="C41" s="35"/>
@@ -1871,7 +1871,7 @@
       <c r="J41" s="34"/>
       <c r="K41" s="34"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>65</v>
       </c>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="D42" s="25"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>71</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>1541229</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>72</v>
       </c>
@@ -1915,16 +1915,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A262564-DDAB-4B62-8CF7-416708E61101}">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="11.44140625" style="1"/>
+    <col min="5" max="5" width="32.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>75</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -1952,13 +1953,13 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="1">
         <f>C2-C3</f>
         <v>96635302</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>79</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>17752173</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>238</v>
       </c>
@@ -1995,7 +1996,7 @@
         <v>101573567</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>85</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>87</v>
       </c>
@@ -2029,7 +2030,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>93</v>
       </c>
@@ -2058,7 +2059,7 @@
       </c>
       <c r="F18" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>99</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -2095,18 +2096,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F4F690-047B-4DA5-9137-EE255792CA73}">
   <dimension ref="A2:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1"/>
+    <col min="6" max="6" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>107</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>95820142</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="7" t="s">
         <v>145</v>
@@ -2134,7 +2135,7 @@
         <v>803422</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="7" t="s">
         <v>146</v>
@@ -2148,7 +2149,7 @@
         <v>31746619</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="7" t="s">
         <v>147</v>
@@ -2162,7 +2163,7 @@
         <v>2255521</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="7" t="s">
         <v>148</v>
@@ -2176,7 +2177,7 @@
         <v>382414</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="7" t="s">
         <v>149</v>
@@ -2190,7 +2191,7 @@
         <v>1842366</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>150</v>
@@ -2204,7 +2205,7 @@
         <v>58789800</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="27"/>
@@ -2212,7 +2213,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>109</v>
       </c>
@@ -2224,7 +2225,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>111</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>27129053</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>113</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>681811</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>115</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>496058</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>116</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>185733</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>119</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>2274356</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>123</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>407206</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>124</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>1867106</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>125</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>8976376</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
         <v>126</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>7176699</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D20" s="1" t="s">
         <v>127</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>1799677</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>131</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>1108519</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>133</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>134</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>5511702</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>135</v>
       </c>
@@ -2384,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>139</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>303688</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>140</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>329599</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>191</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>15229484</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="3" t="s">
         <v>195</v>
@@ -2432,7 +2433,7 @@
         <v>13547917</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
       <c r="C29" s="7"/>
       <c r="D29" s="27" t="s">
@@ -2445,7 +2446,7 @@
         <v>8608202</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
@@ -2458,7 +2459,7 @@
         <v>3758581</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2469,7 +2470,7 @@
         <v>16353</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2480,7 +2481,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33"/>
       <c r="D33" s="1" t="s">
@@ -2493,7 +2494,7 @@
         <v>1181134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="7"/>
       <c r="D34" s="1"/>
@@ -2504,7 +2505,7 @@
         <v>996919</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
       <c r="C35" s="7"/>
       <c r="D35" s="1"/>
@@ -2515,7 +2516,7 @@
         <v>170897</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
         <v>203</v>
@@ -2528,7 +2529,7 @@
         <v>103667</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
@@ -2540,12 +2541,12 @@
         <v>1577900</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>235</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>2165373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="7" t="s">
         <v>233</v>
@@ -2572,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>221</v>
       </c>
@@ -2583,14 +2584,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="27"/>
       <c r="D43" s="5"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>211</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>49014687</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" s="32" t="s">
         <v>213</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>758980</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" s="32" t="s">
         <v>215</v>
       </c>
@@ -2625,7 +2626,7 @@
         <v>7490520</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="7" t="s">
         <v>219</v>
@@ -2638,7 +2639,7 @@
         <v>7597638</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="7" t="s">
         <v>223</v>
@@ -2651,7 +2652,7 @@
         <v>2990083</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="7" t="s">
         <v>225</v>
@@ -2664,7 +2665,7 @@
         <v>98790</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="7" t="s">
         <v>213</v>
@@ -2678,7 +2679,7 @@
         <v>758980</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="7" t="s">
         <v>217</v>
@@ -2690,7 +2691,7 @@
         <v>268272</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="7" t="s">
         <v>227</v>
@@ -2703,7 +2704,7 @@
         <v>5065049</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="7" t="s">
         <v>228</v>
@@ -2716,7 +2717,7 @@
         <v>7630927</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="7" t="s">
         <v>229</v>
@@ -2729,13 +2730,13 @@
         <v>2565878</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="28"/>
       <c r="B55" s="28"/>
       <c r="C55" s="30"/>
       <c r="F55" s="30"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>207</v>
       </c>
@@ -2748,11 +2749,11 @@
         <v>734844</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="30"/>
       <c r="F57" s="30"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>157</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>94916811</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>159</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>161</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>45663234</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>163</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>28756867</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>165</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>1324998</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>167</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>169</v>
       </c>
@@ -2841,11 +2842,11 @@
         <v>16883514</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="30"/>
       <c r="F66" s="30"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>173</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>28329831</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>175</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>179</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>19859180</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>181</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>439107</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>183</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>3043066</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D72" s="1" t="s">
         <v>184</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>2878641</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>189</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>91416</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>187</v>
       </c>
@@ -2961,12 +2962,12 @@
       <selection activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>211</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>49014687</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>213</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>758980</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>215</v>
       </c>
@@ -3001,32 +3002,32 @@
         <v>7490520</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E5" s="1">
         <v>7597638</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E7" s="1">
         <v>2990083</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" s="1">
         <v>5065049</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9" s="1">
         <v>7630927</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10" s="1">
         <v>2565878</v>
       </c>

--- a/Finanzas gESTIÓN mUNI 2.xlsx
+++ b/Finanzas gESTIÓN mUNI 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD1E255-E161-4A2D-872F-86905150144C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83406CD-5EB3-46BD-A147-241AE4AB8785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{3CD0175B-BE40-4100-955A-3E67F9C56D37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3CD0175B-BE40-4100-955A-3E67F9C56D37}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingreso" sheetId="1" r:id="rId1"/>
@@ -1230,24 +1230,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848A8834-07CC-4455-911A-8C4DEBE7B37F}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:C44"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="19" customWidth="1"/>
     <col min="2" max="2" width="11" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="19"/>
+    <col min="3" max="3" width="11.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="19"/>
     <col min="7" max="7" width="17" style="19" customWidth="1"/>
-    <col min="8" max="11" width="11.44140625" style="19"/>
+    <col min="8" max="11" width="11.42578125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>11</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="12" t="s">
         <v>41</v>
@@ -1297,7 +1297,7 @@
         <v>65364293</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="12" t="s">
@@ -1317,7 +1317,7 @@
       <c r="K4" s="18"/>
       <c r="L4" s="17"/>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1337,7 +1337,7 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>239</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>239</v>
       </c>
@@ -1384,7 +1384,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -1403,7 +1403,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1422,7 +1422,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>239</v>
       </c>
@@ -1443,27 +1443,27 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="14"/>
       <c r="J11" s="17"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
@@ -1477,7 +1477,7 @@
         <v>37559231</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>239</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>2004835</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>239</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>4765</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>239</v>
       </c>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="24"/>
       <c r="C18" s="12" t="s">
@@ -1549,7 +1549,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1558,7 +1558,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="12" t="s">
@@ -1576,7 +1576,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="12" t="s">
@@ -1594,7 +1594,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="12" t="s">
@@ -1612,7 +1612,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="12" t="s">
@@ -1630,7 +1630,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>239</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="24"/>
@@ -1662,7 +1662,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="12" t="s">
@@ -1685,17 +1685,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="G27" s="12"/>
       <c r="L27" s="20"/>
     </row>
-    <row r="28" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="J28" s="16"/>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
       <c r="C29" s="35"/>
@@ -1708,7 +1708,7 @@
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>38</v>
       </c>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>51</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
     </row>
-    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="26" t="s">
         <v>53</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="19" t="s">
         <v>50</v>
       </c>
@@ -1774,10 +1774,10 @@
       </c>
       <c r="E33" s="19"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E34" s="19"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>68</v>
       </c>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="E35" s="19"/>
     </row>
-    <row r="36" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="34"/>
       <c r="B36" s="34"/>
       <c r="C36" s="35"/>
@@ -1803,7 +1803,7 @@
       <c r="J36" s="34"/>
       <c r="K36" s="34"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>57</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>61</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>69</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
         <v>64</v>
       </c>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="F40" s="20"/>
     </row>
-    <row r="41" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
       <c r="B41" s="34"/>
       <c r="C41" s="35"/>
@@ -1871,7 +1871,7 @@
       <c r="J41" s="34"/>
       <c r="K41" s="34"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>65</v>
       </c>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="D42" s="25"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>71</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>1541229</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>72</v>
       </c>
@@ -1915,17 +1915,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A262564-DDAB-4B62-8CF7-416708E61101}">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F22:F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.44140625" style="1"/>
-    <col min="5" max="5" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>75</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -1953,13 +1953,13 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <f>C2-C3</f>
         <v>96635302</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>79</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>17752173</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>238</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>101573567</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>85</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>87</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>93</v>
       </c>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="F18" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>99</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -2096,18 +2096,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F4F690-047B-4DA5-9137-EE255792CA73}">
   <dimension ref="A2:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1"/>
-    <col min="6" max="6" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>107</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>95820142</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="7" t="s">
         <v>145</v>
@@ -2135,7 +2135,7 @@
         <v>803422</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="7" t="s">
         <v>146</v>
@@ -2149,7 +2149,7 @@
         <v>31746619</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="7" t="s">
         <v>147</v>
@@ -2163,7 +2163,7 @@
         <v>2255521</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="7" t="s">
         <v>148</v>
@@ -2177,7 +2177,7 @@
         <v>382414</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="7" t="s">
         <v>149</v>
@@ -2191,7 +2191,7 @@
         <v>1842366</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>150</v>
@@ -2205,7 +2205,7 @@
         <v>58789800</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="27"/>
@@ -2213,7 +2213,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>109</v>
       </c>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>111</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>27129053</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>113</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>681811</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>115</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>496058</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>116</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>185733</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>119</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>2274356</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>123</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>407206</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>124</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>1867106</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>125</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>8976376</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>126</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>7176699</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
         <v>127</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>1799677</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>131</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>1108519</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>133</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>134</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>5511702</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>135</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>139</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>303688</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>140</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>329599</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>191</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>15229484</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="3" t="s">
         <v>195</v>
@@ -2433,7 +2433,7 @@
         <v>13547917</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="7"/>
       <c r="D29" s="27" t="s">
@@ -2446,7 +2446,7 @@
         <v>8608202</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
@@ -2459,7 +2459,7 @@
         <v>3758581</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2470,7 +2470,7 @@
         <v>16353</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2481,7 +2481,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
       <c r="C33"/>
       <c r="D33" s="1" t="s">
@@ -2494,7 +2494,7 @@
         <v>1181134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="C34" s="7"/>
       <c r="D34" s="1"/>
@@ -2505,7 +2505,7 @@
         <v>996919</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="7"/>
       <c r="D35" s="1"/>
@@ -2516,7 +2516,7 @@
         <v>170897</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
         <v>203</v>
@@ -2529,7 +2529,7 @@
         <v>103667</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
@@ -2541,12 +2541,12 @@
         <v>1577900</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>235</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>2165373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="7" t="s">
         <v>233</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>221</v>
       </c>
@@ -2584,14 +2584,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="27"/>
       <c r="D43" s="5"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>211</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>49014687</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="32" t="s">
         <v>213</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>758980</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="32" t="s">
         <v>215</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>7490520</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="7" t="s">
         <v>219</v>
@@ -2639,7 +2639,7 @@
         <v>7597638</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="7" t="s">
         <v>223</v>
@@ -2652,7 +2652,7 @@
         <v>2990083</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="7" t="s">
         <v>225</v>
@@ -2665,7 +2665,7 @@
         <v>98790</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="7" t="s">
         <v>213</v>
@@ -2679,7 +2679,7 @@
         <v>758980</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="7" t="s">
         <v>217</v>
@@ -2691,7 +2691,7 @@
         <v>268272</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="7" t="s">
         <v>227</v>
@@ -2704,7 +2704,7 @@
         <v>5065049</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="7" t="s">
         <v>228</v>
@@ -2717,7 +2717,7 @@
         <v>7630927</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="7" t="s">
         <v>229</v>
@@ -2730,13 +2730,13 @@
         <v>2565878</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
       <c r="B55" s="28"/>
       <c r="C55" s="30"/>
       <c r="F55" s="30"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>207</v>
       </c>
@@ -2749,11 +2749,11 @@
         <v>734844</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="30"/>
       <c r="F57" s="30"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>157</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>94916811</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>159</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>161</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>45663234</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>163</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>28756867</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>165</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>1324998</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>167</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>169</v>
       </c>
@@ -2842,11 +2842,11 @@
         <v>16883514</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="30"/>
       <c r="F66" s="30"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>173</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>28329831</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>175</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>179</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>19859180</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
         <v>181</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>439107</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
         <v>183</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>3043066</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D72" s="1" t="s">
         <v>184</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>2878641</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>189</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>91416</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>187</v>
       </c>
@@ -2962,12 +2962,12 @@
       <selection activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.44140625" style="1"/>
+    <col min="5" max="5" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>211</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>49014687</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>213</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>758980</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>215</v>
       </c>
@@ -3002,32 +3002,32 @@
         <v>7490520</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
         <v>7597638</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>2990083</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>5065049</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="1">
         <v>7630927</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <v>2565878</v>
       </c>

--- a/Finanzas gESTIÓN mUNI 2.xlsx
+++ b/Finanzas gESTIÓN mUNI 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83406CD-5EB3-46BD-A147-241AE4AB8785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241D8C95-BB0E-48C9-A74C-39BBBEBFE653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3CD0175B-BE40-4100-955A-3E67F9C56D37}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3CD0175B-BE40-4100-955A-3E67F9C56D37}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingreso" sheetId="1" r:id="rId1"/>
@@ -783,7 +783,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,6 +799,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -914,6 +926,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1230,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848A8834-07CC-4455-911A-8C4DEBE7B37F}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A262564-DDAB-4B62-8CF7-416708E61101}">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F4F690-047B-4DA5-9137-EE255792CA73}">
   <dimension ref="A2:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,7 +2146,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="6">
+      <c r="F3" s="40">
         <v>803422</v>
       </c>
     </row>
@@ -2145,7 +2160,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="6">
+      <c r="F4" s="40">
         <v>31746619</v>
       </c>
     </row>
@@ -2159,7 +2174,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="6">
+      <c r="F5" s="40">
         <v>2255521</v>
       </c>
     </row>
@@ -2173,7 +2188,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="6">
+      <c r="F6" s="40">
         <v>382414</v>
       </c>
     </row>
@@ -2187,7 +2202,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="6">
+      <c r="F7" s="40">
         <v>1842366</v>
       </c>
     </row>
@@ -2201,7 +2216,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="6">
+      <c r="F8" s="40">
         <v>58789800</v>
       </c>
     </row>
@@ -2232,7 +2247,7 @@
       <c r="C11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="38">
         <v>27129053</v>
       </c>
     </row>
@@ -2416,7 +2431,7 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="4">
+      <c r="F27" s="38">
         <v>15229484</v>
       </c>
     </row>
@@ -2555,7 +2570,7 @@
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="5"/>
-      <c r="F40" s="1">
+      <c r="F40" s="39">
         <v>2165373</v>
       </c>
     </row>
@@ -2600,7 +2615,7 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="F44" s="2">
+      <c r="F44" s="38">
         <v>49014687</v>
       </c>
     </row>

--- a/Finanzas gESTIÓN mUNI 2.xlsx
+++ b/Finanzas gESTIÓN mUNI 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241D8C95-BB0E-48C9-A74C-39BBBEBFE653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF7A507-E966-4377-931B-9EBA5EE3C943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3CD0175B-BE40-4100-955A-3E67F9C56D37}"/>
   </bookViews>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,14 +2111,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F4F690-047B-4DA5-9137-EE255792CA73}">
   <dimension ref="A2:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
